--- a/Tidy Data 2/Raw Data.xlsx
+++ b/Tidy Data 2/Raw Data.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
+    <t>Codigo Comuna</t>
+  </si>
+  <si>
     <t>Nombre Comuna</t>
-  </si>
-  <si>
-    <t>Codigo Comuna</t>
   </si>
   <si>
     <t>Total Comunal</t>
